--- a/DATA/PBDB_data/PDBD_data(consolidated).xlsx
+++ b/DATA/PBDB_data/PDBD_data(consolidated).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\britt\Desktop\GIT _SUBMIT\Project-2\DATA\PBDB_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B286688-29BB-4AB1-856A-9A806FE1957E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC19C12-FABB-4041-876E-471C0C937D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="6474" windowWidth="14220" windowHeight="6030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Review" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="opinions" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2114,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -2969,7 +2970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -4118,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6177,7 +6178,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6323,7 +6324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L192" sqref="L192"/>
     </sheetView>
   </sheetViews>
